--- a/user_stories.xlsx
+++ b/user_stories.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\basti\Desktop\oc\projets\Projet_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{787145F1-A887-43E3-BB5F-D015F3B76C89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6474CFFB-447D-4B5C-9699-BC42F416E9DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-5490" windowWidth="38620" windowHeight="21220" xr2:uid="{8FB0D089-BD03-4C1C-A3BC-FAF31A521F21}"/>
   </bookViews>
@@ -86,26 +86,9 @@
     <t>Afficher les informations récentes et importantes</t>
   </si>
   <si>
-    <t>Un nouveau mot de passe peut être défini</t>
-  </si>
-  <si>
     <t>Accéder à son calendrier</t>
   </si>
   <si>
-    <t>La page de création de compte est accessible via la page de connexion
-Le compte créé doit avoir le format suivant:
-L'email doit être au format @
-Le mot de passe doit avoir au moins 8 caractères:
-Le mot de passe doit contenir au moins un chiffre
-Le mot de passe doit contenir au moins une majuscule
-Le mot de passe doit contenir au moins une minuscule
-Le mot de passe doit contenir au moins un symbole</t>
-  </si>
-  <si>
-    <t>La page de connexion est la page obtenue à l'ouverture du site
-La connexion est réalisée si l'association email/mot de passe existe</t>
-  </si>
-  <si>
     <t>Afficher les tâches</t>
   </si>
   <si>
@@ -145,75 +128,1007 @@
     <t>En tant qu'élève, je veux voir les tâches restantes à faire et les tâches réalisées</t>
   </si>
   <si>
-    <t>En tant qu'élève, je veux créer une tâche via la page de gestion des tâches</t>
-  </si>
-  <si>
-    <t>En tant que bénévole, je veux créer une tâche pour un élève via la page de gestion des tâches</t>
-  </si>
-  <si>
     <t>En tant qu'utilisateur, je veux avoir accès à un récapitulatif de mes informations via la page du tableau de bord</t>
   </si>
   <si>
-    <t>Si je ne suis pas connecté, je ne peux pas ajouter de contact
-Le contact doit être existant sur le site
-Si le contact n'existe pas, l'utilisateur doit être informé
-Un message indiqué que le contact a été ajouté</t>
-  </si>
-  <si>
-    <t>Si je ne suis pas connecté, je ne peux pas supprimer de contact
-Une barre de recherche des contacts existants
-Un moyen de supprimer un contact existant
-Un message indique que le contact a été supprimé</t>
-  </si>
-  <si>
-    <t>Si je ne suis pas connecté, je ne peux pas envoyer un message
-Le contact doit être dans ma liste de contacts
-Le message n'a pas de contraintes de caractères
-Le message s'envoie instantanément
-La photo de profil de l'expéditeur s'affiche à côté du message envoyé
-L'heure d'envoi du message s'affiche</t>
-  </si>
-  <si>
-    <t>Si je ne suis pas connecté, je ne peux pas accéder à une conversation
-Accès à l'intégralité de l'historique de la conversation</t>
-  </si>
-  <si>
-    <t>Si je ne suis pas connecté, je ne peux pas visualiser la lecture d'un message
-Un symbole s'affiche dès que le message est lu</t>
-  </si>
-  <si>
-    <t>Si je ne suis pas connecté, je ne peux pas accéder à mon calendrier
-Possibilité d'afficher à la journée
-Possibilité d'afficher à la semaine
-Possibilité d'afficher au mois
-Possibilité d'afficher à l'année</t>
-  </si>
-  <si>
-    <t>Si je ne suis pas connecté, je ne peux pas ajouter un évènement/rendez-vous.
-Pas de durée limitée
-L'évènement/rendez-vous est visible dans le calendrier</t>
-  </si>
-  <si>
-    <t>Si je ne suis pas connecté, je ne peux pas supprimer un évènement/rendez-vous.
-L'évènement/rendez-vous n'apparaît plus dans le calendrier</t>
-  </si>
-  <si>
-    <t>Si je ne suis pas connecté, je ne peux pas voir les tâches.
-L'ordre d'affichage des tâches est chronologique (les premières ajoutées en premier)</t>
-  </si>
-  <si>
-    <t>Si je ne suis pas connecté, je ne peux pas créer une tâche.
-La tâche s'affiche dans ma to-do list</t>
-  </si>
-  <si>
-    <t>Si je ne suis pas connecté, je ne peux pas créer une tâche.
-Je peux sélectionner un élève existant dans mes contacts</t>
-  </si>
-  <si>
-    <t>Si je ne suis pas connecté, je ne peux pas accéder au tableau de bord.
-J'ai accès à ma liste de tâches
-J'ai accès à ma liste de tous les prochains évènements
-J'ai accès à un compteur de messages non lus</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Etant donné que</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> je suis connecté et sur la page de mon Calendrier
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lorsque</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> je clique sur un jour de mon calendrier
+et que je clique sur "OK"
+puis que je renseigne un nom, une date, une durée et un lieu d'évènement/rendez-vous
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Alors</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, je peux cliquer sur ajouter et l'évènement/rendez-vous est visible sur le calendrier</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Etant donné que</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> je suis connecté
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lorsque</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> je clique sur "Tâches"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Alors</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, je peux visualiser les tâches à réaliser dans un ordre chronologique</t>
+    </r>
+  </si>
+  <si>
+    <t>En tant que tuteur bénévole, je veux créer une tâche pour un élève via la page de gestion des tâches</t>
+  </si>
+  <si>
+    <t>En tant qu'utilisateur, je veux créer une tâche via la page de gestion des tâches</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Etant donné que</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> je suis sur la page de création de compte
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lorsque</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> je renseigne un email au format abc@exemple.com et
+un mot de passe avec au moins un chiffre, une majuscule, une minuscule et un symbole
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Alors</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> je peux cliquer sur "créer un compte", un message indiquant que le compte est créé s'affiche et je peux revenir à l'écran de connexion.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Etant donné que</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> j'ai cliqué sur "mot de passe oublié" de la page de connexion
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lorsque</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> je renseigne un email existant et une confirmation d'email identique et que je clique sur "renouveler"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Alors</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> je reçois un mail avec un nouveau mot de passe</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Etant donné que</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> je suis sur la page de connexion obtenue à l'ouverture du site
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lorsque</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> je renseigne un email et un mot de passe dont l'association existe et que je clique sur "connexion"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Alors</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> je me connecte</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Etant donné que</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> je suis connecté et sur l'interface de chat
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lorsque</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> je clique sur l'icône d'ajout d'un contact
+puis que je renseigne un contact existant ou que j'utilise la barre de recherche pour trouver un contact existant
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Alors</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> je peux cliquer sur ajouter et le contact est ajouté à mes contacts</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Etant donné que</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> je suis connecté et sur l'interface de chat
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lorsque</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> je clique sur l'icône de création d'un nouveau message
+puis que je renseigne un contact existant ou que j'utilise la barre de recherche pour selectionner un contact existant
+et que j'écris un message
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Alors </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>je peux envoyer un message</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Etant donné que</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> je suis connecté et sur l'interface de chat
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lorsque</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  je clique sur l'icône de suppression de contact
+puis que je renseigne un contact existant ou que j'utilise la barre de recherche pour selectionner un contact existant
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Alors</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> je peux cliquer sur supprimer et le contact est supprimé de mes contacts</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Etant donné que</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> je suis connecté et sur l'interface de chat
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lorsque</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> je clique sur un onglet existant d'une conversation
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Alors</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> je peux accéder à la conversation</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Etant donné que</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> je suis connecté
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lorsque</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> je clique sur "Calendrier"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Alors</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> je peux visualiser le calendrier</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Etant donné que</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> je suis connecté et sur l'interface de chat
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lorsque</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> je clique sur un onglet existant d'une conversation
+et que le message envoyé a été lu
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Alors</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> je peux visualiser que lemessage a été lu</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Etant donné que</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> je suis connecté et sur la page de mon Calendrier
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lorsque</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> je clique sur un jour de mon calendrier pour sélectionner un évènement/rendez-vous
+et que je clique sur "OK" pour afficher les informations de l'évènement
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Alors</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> je peux cliquer sur supprimer et l'évènement/rendez-vous n'est plus visible sur le calendrier</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Etant donné que</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> je suis connecté et que je suis sur la page des tâches
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lorsque</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> je clique sur "créer une tâche"
+puis que je renseigne un nom de tâche
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Alors </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>je peux cliquer sur "créer" et une tâche est ajoutée à ma liste de tâches</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Etant donné que</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> je suis connecté
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Alors</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> je suis sur la page du tableau de bord et je peux voir mes tâches, mes évènements et un compteur de messages non lus</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Etant donné que</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> je suis connecté et que je suis sur la page des tâches
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lorsque</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> je clique sur "créer une tâche"
+puis que je renseigne un nom de tâche et une élève existant dans mes contacts
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Alors</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> je peux cliquer sur "créer" et une tâche est ajoutée à la liste de tâches de l'élève sélectionné</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -245,10 +1160,36 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -257,22 +1198,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -591,191 +1535,191 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="50.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="99.21875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="73.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="11.5546875" style="2"/>
+    <col min="3" max="3" width="73.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:3" ht="96" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>18</v>
+      <c r="C5" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="5" t="s">
+    <row r="6" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>37</v>
+      <c r="C6" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>38</v>
+      <c r="C10" s="6" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="5" t="s">
+    <row r="11" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>39</v>
+      <c r="C11" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="5" t="s">
+    <row r="12" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>40</v>
+      <c r="C12" s="6" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+    <row r="13" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B13" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>41</v>
+      <c r="C13" s="6" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="5" t="s">
+    <row r="14" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="3" t="s">
+      <c r="C16" s="6" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/user_stories.xlsx
+++ b/user_stories.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\basti\Desktop\oc\projets\Projet_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA4FCA7-E455-46AA-8736-0F687A1CCA37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A208DB0-6814-4A22-954E-16B76A4BB89B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-5490" windowWidth="38620" windowHeight="21220" xr2:uid="{8FB0D089-BD03-4C1C-A3BC-FAF31A521F21}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Cas d'usage</t>
   </si>
@@ -50,9 +50,6 @@
     <t>Critère(s) d'acceptation</t>
   </si>
   <si>
-    <t>Se connecter au site web</t>
-  </si>
-  <si>
     <t>Récupérer un mot de passe oublié</t>
   </si>
   <si>
@@ -68,9 +65,6 @@
     <t>Accéder à une conversation</t>
   </si>
   <si>
-    <t>Visualiser la lecture d'un message</t>
-  </si>
-  <si>
     <t>Ajouter un évènement/rendez-vous dans un calendrier</t>
   </si>
   <si>
@@ -113,9 +107,6 @@
     <t>En tant qu'utilisateur, je veux retrouver une conversation avec un contact via l'interface de chat</t>
   </si>
   <si>
-    <t>En tant qu'utilisateur, je veux voir si un message a été lu via l'interface de chat</t>
-  </si>
-  <si>
     <t>En tant qu'utilisateur, je veux afficher mon calendrier via la page de calendrier</t>
   </si>
   <si>
@@ -135,73 +126,6 @@
   </si>
   <si>
     <t>En tant qu'utilisateur, je veux créer une tâche via la page de gestion des tâches</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Etant donné que</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> je suis connecté et sur l'interface de chat
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Lorsque</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> je clique sur un onglet existant d'une conversation
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Alors</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> je peux accéder à la conversation</t>
-    </r>
   </si>
   <si>
     <r>
@@ -775,74 +699,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> je suis connecté et sur l'interface de chat
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Lorsque</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> je clique sur un onglet existant d'une conversation et que j'acède à une conversation avec au moins un message envoyé
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Alors:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- Je peux visualiser si un message a été lu ou non</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Etant donné que</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve"> je suis connecté et sur la page de mon Calendrier
 </t>
     </r>
@@ -1260,6 +1116,76 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> je me déconnecte</t>
+    </r>
+  </si>
+  <si>
+    <t>Se connecter</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Etant donné que</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> je suis connecté et sur l'interface de chat
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lorsque</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> je clique sur un onglet existant d'une conversation
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Alors</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> je peux accéder à la conversation, voir si un message que j'ai envoyé a été lu et voir l'heure d'envoi des messages</t>
     </r>
   </si>
 </sst>
@@ -1664,10 +1590,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02B8376B-63DD-4C7E-8F77-A51F5D13DE1F}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1694,175 +1620,164 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="97.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="103.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="96.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>41</v>
+      <c r="C10" s="6" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+    <row r="11" spans="1:3" ht="108" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B11" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>33</v>
+      <c r="C11" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+    <row r="12" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B12" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>42</v>
+      <c r="C12" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="5" t="s">
+    <row r="13" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>34</v>
+      <c r="C13" s="6" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="108" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+    <row r="14" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="B16" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
